--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1597710.24035109</v>
+        <v>1590364.263461425</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2083705.798332966</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702443.552109824</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10628372.86897383</v>
+        <v>10845187.75981517</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>109.4422623037129</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>152.1157524910533</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>26.78026256753496</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>160.1743669966221</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>129.96746236489</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>13.62152856464951</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>66.17512620685334</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>63.15162983675109</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>297.0377813917716</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>83.86665866307584</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.31590541686241</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938906</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>195.0368417062828</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664349</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958679</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183532</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.73964677811905</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>105.6571329437495</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>217.5845378880975</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938904</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664346</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958671</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183517</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="I16" t="n">
-        <v>62.5851566346068</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505273959</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>88.83679808884803</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>179.2697169710083</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>215.0546805228911</v>
+        <v>7.67420571412707</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>155.8385935972304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>223.4261454147153</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>135.5535868730193</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>155.8385935972322</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>50.03633552408541</v>
       </c>
       <c r="W34" t="n">
-        <v>152.6276470398236</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>57.64843562452408</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>135.8070937148558</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>155.8385935972322</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>128.4285848360769</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>70.70017889257694</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.4191326076318</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554.3221432721089</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>185.3596263316971</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362306</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,7 +4412,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4433,25 +4433,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.9299350185087</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>80.99375209060179</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>80.99375209060179</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>80.99375209060179</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>80.99375209060179</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>80.99375209060179</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>80.99375209060179</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>80.99375209060179</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>388.7731165986622</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>388.7731165986622</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X4" t="n">
-        <v>470.7225141620388</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>249.9299350185087</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1507.652482896327</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1507.652482896327</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4622,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
         <v>266.206002764199</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>257.1154545468206</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>257.1154545468206</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>257.1154545468206</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>257.1154545468206</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>257.1154545468206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>1005.372199209268</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>636.4096822688562</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>278.1439836621057</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>278.1439836621057</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>271.1984829129022</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4801,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1812.286255290752</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1812.286255290752</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.14692331494</v>
+        <v>1391.97203927339</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>415.4256366790474</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511405</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>643.4151875770647</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>643.4151875770647</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>415.4256366790474</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>415.4256366790474</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2042.012130862979</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>1673.049613922568</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1314.783915315817</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>928.9956627175731</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>928.9956627175731</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>511.9078809540005</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>193.68476572651</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403561</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>3502.582845516598</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>3502.582845516598</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3171.519958173027</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>2818.751302902913</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>2818.751302902913</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2428.611970927101</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>73.9917951266205</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>209.2154943965371</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>346.4450924122302</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>986.990441879334</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1660.196134132116</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2209.632142884838</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2633.599911365674</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>988.3308737797817</v>
+        <v>203.9414681711439</v>
       </c>
       <c r="C13" t="n">
-        <v>819.3946908518748</v>
+        <v>203.9414681711439</v>
       </c>
       <c r="D13" t="n">
-        <v>669.278051439539</v>
+        <v>203.9414681711439</v>
       </c>
       <c r="E13" t="n">
-        <v>521.3649578571459</v>
+        <v>203.9414681711439</v>
       </c>
       <c r="F13" t="n">
-        <v>521.3649578571459</v>
+        <v>203.9414681711439</v>
       </c>
       <c r="G13" t="n">
-        <v>352.7581128525293</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>198.5034697522943</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>175.0397247222299</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230478</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422853</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783891</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669875</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585963</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585963</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1073.926476585963</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1073.926476585963</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>1073.926476585963</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W13" t="n">
-        <v>1073.926476585963</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X13" t="n">
-        <v>1073.926476585963</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="Y13" t="n">
-        <v>1073.926476585963</v>
+        <v>385.5899330013836</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2255.692615392143</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>1886.730098451731</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1528.464399844981</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1142.676147246737</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>731.6902424571292</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>511.9078809540005</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>193.6847657265099</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266206</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403568</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>666.098807160402</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406601</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.629876389912</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449758</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216835</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.41379555613</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.58975633103</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.58975633103</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.58975633103</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>3699.58975633103</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>3699.58975633103</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3368.526868987459</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3015.758213717345</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.292455456265</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2642.292455456265</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266206</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>73.9917951266206</v>
+        <v>233.7852434110095</v>
       </c>
       <c r="K15" t="n">
-        <v>316.6325031462274</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L15" t="n">
-        <v>820.9940430123456</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M15" t="n">
-        <v>1461.53939247945</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N15" t="n">
-        <v>1660.196134132114</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2209.632142884837</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2633.599911365674</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.33685256765</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1073.926476585965</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C16" t="n">
-        <v>904.9902936580577</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="D16" t="n">
-        <v>754.8736542457219</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="E16" t="n">
-        <v>606.9605606633288</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="F16" t="n">
-        <v>460.0706131654184</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="G16" t="n">
-        <v>291.4637681608018</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="H16" t="n">
-        <v>137.2091250605669</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266206</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266206</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>175.0397247222303</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230485</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422863</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783905</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669892</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165605</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1073.926476585965</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1073.926476585965</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>1073.926476585965</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W16" t="n">
-        <v>1073.926476585965</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X16" t="n">
-        <v>1073.926476585965</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y16" t="n">
-        <v>1073.926476585965</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="17">
@@ -5500,19 +5500,19 @@
         <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5536,10 +5536,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231263</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.598437470156</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766199</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656581</v>
+        <v>841.8631140141287</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320614</v>
+        <v>1171.725741678161</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>542.438140992646</v>
+        <v>503.0396462065432</v>
       </c>
       <c r="C19" t="n">
-        <v>542.438140992646</v>
+        <v>503.0396462065432</v>
       </c>
       <c r="D19" t="n">
-        <v>542.438140992646</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.156678913841</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>952.0761567209031</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="X19" t="n">
-        <v>724.0866058228858</v>
+        <v>503.0396462065432</v>
       </c>
       <c r="Y19" t="n">
-        <v>724.0866058228858</v>
+        <v>503.0396462065432</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5831,16 +5831,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4241.186579017401</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C22" t="n">
-        <v>4072.250396089493</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D22" t="n">
-        <v>3922.133756677158</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E22" t="n">
-        <v>3774.220663094764</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596854</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014292</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W22" t="n">
-        <v>4860.854573014292</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X22" t="n">
-        <v>4643.62762299117</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="Y22" t="n">
-        <v>4422.83504384764</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,16 +6056,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>711.072954880832</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6183,16 +6183,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>1341.503549752619</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X25" t="n">
-        <v>1113.513998854602</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="Y25" t="n">
-        <v>892.7214197110717</v>
+        <v>729.1316371486756</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y28" t="n">
-        <v>1278.123691414372</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4230.423978142506</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>4061.487795214599</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3911.371155802263</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3763.45806221987</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3616.56811472196</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>4860.854573014292</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>4860.854573014292</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>4632.865022116275</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>4412.072442972745</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,28 +6679,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514081</v>
@@ -6718,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3628.091576844582</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>4036.945405494735</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V34" t="n">
-        <v>3782.260917288848</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="W34" t="n">
-        <v>3628.091576844582</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X34" t="n">
-        <v>3628.091576844582</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y34" t="n">
-        <v>3628.091576844582</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
@@ -6946,10 +6946,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6961,13 +6961,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,16 +7004,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>324.3840174432676</v>
+        <v>699.5778825909698</v>
       </c>
       <c r="C37" t="n">
-        <v>155.4478345153607</v>
+        <v>699.5778825909698</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>549.461243178634</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y37" t="n">
-        <v>506.0324822735073</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,43 +7162,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4230.423978142506</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C40" t="n">
-        <v>4061.487795214599</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D40" t="n">
-        <v>3911.371155802263</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E40" t="n">
-        <v>3763.45806221987</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3616.56811472196</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014292</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>4860.854573014292</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>4860.854573014292</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W40" t="n">
-        <v>4860.854573014292</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X40" t="n">
-        <v>4632.865022116275</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y40" t="n">
-        <v>4412.072442972745</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,10 +7411,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X43" t="n">
-        <v>1270.926719659885</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y43" t="n">
-        <v>1270.926719659885</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,16 +7660,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4077.211924324076</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C46" t="n">
-        <v>4077.211924324076</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>3927.09528491174</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>3779.182191329347</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>3779.182191329347</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3611.006869649168</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3460.588861197111</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4525.994054365623</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4525.994054365623</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>4525.994054365623</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W46" t="n">
-        <v>4525.994054365623</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X46" t="n">
-        <v>4298.004503467606</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y46" t="n">
-        <v>4077.211924324076</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928724</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>68.29886828945467</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928483</v>
+        <v>96.03744927814762</v>
       </c>
       <c r="K15" t="n">
-        <v>176.8008973295454</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>306.1147370139969</v>
+        <v>360.502686290726</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.7842838544522</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814688</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>17.61502140868322</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.09233340381824</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>60.83643551962813</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
-        <v>17.6958418817692</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677915</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>195.3323660578393</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>33.38685156731873</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68140124481021</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176906</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>59.77867492936433</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>107.2532813655827</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>10.65497486614609</v>
+        <v>218.0354496749101</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24423,16 +24423,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>2.283509974321817</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>44.278393308918</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>44.93311153869659</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>10.65497486614538</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>202.1013077997426</v>
       </c>
       <c r="W34" t="n">
-        <v>133.8953512967674</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>90.96703739368829</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>10.62686893171335</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25368,16 +25368,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>113.0824928447106</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>10.65497486614538</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.40339534586045</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25851,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>147.8844744595178</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>109.0001128566402</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>96.29904972659759</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801712.5440420802</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801712.5440420806</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>926047.2283490476</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>926047.2283490479</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.017671963</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>388396.0040473217</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
-        <v>388396.0040473219</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983651</v>
       </c>
       <c r="H2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="I2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="J2" t="n">
-        <v>449683.4186983651</v>
-      </c>
       <c r="K2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="L2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="M2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="N2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983655</v>
       </c>
     </row>
     <row r="3">
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188426</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.256948507943889e-09</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659092</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965286</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>3.619846893343492e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991094</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
-      <c r="D4" t="n">
-        <v>147917.0487159209</v>
-      </c>
       <c r="E4" t="n">
-        <v>8673.279618076551</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>8673.279618076547</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360147</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-348644.9883219118</v>
+        <v>-348644.9883219119</v>
       </c>
       <c r="C6" t="n">
-        <v>241322.8908926326</v>
+        <v>241322.8908926327</v>
       </c>
       <c r="D6" t="n">
         <v>241322.8908926326</v>
       </c>
       <c r="E6" t="n">
-        <v>62404.41252680118</v>
+        <v>-176355.2666429767</v>
       </c>
       <c r="F6" t="n">
-        <v>310551.1811456426</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="G6" t="n">
-        <v>86016.47182773183</v>
+        <v>348804.7698339194</v>
       </c>
       <c r="H6" t="n">
-        <v>349779.361093641</v>
+        <v>348804.7698339194</v>
       </c>
       <c r="I6" t="n">
-        <v>349779.3610936411</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="J6" t="n">
-        <v>173356.141901048</v>
+        <v>172381.5506413266</v>
       </c>
       <c r="K6" t="n">
-        <v>349779.3610936411</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="L6" t="n">
-        <v>349779.361093641</v>
+        <v>348804.7698339194</v>
       </c>
       <c r="M6" t="n">
-        <v>287326.3052039882</v>
+        <v>214003.7546000824</v>
       </c>
       <c r="N6" t="n">
-        <v>349779.3610936408</v>
+        <v>348804.7698339195</v>
       </c>
       <c r="O6" t="n">
-        <v>279914.4762437303</v>
+        <v>348804.7698339194</v>
       </c>
       <c r="P6" t="n">
-        <v>349779.3610936411</v>
+        <v>348804.7698339197</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380634</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380645</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827575</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209768</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160356</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282006</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708156</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282004</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708156</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282006</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708156</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>245.24077931697</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>234.1221861650002</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>18.41969662100204</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>51.97117195339681</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>235.3054294061176</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>393.2545171770619</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>89.99576263494181</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>350.6325401840439</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>52.20318732564141</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>168.2709846607522</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352324</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198243</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651535</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779012</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>376.502430971252</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074812</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359658</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822507</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426691</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.6431848457569</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810501</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916531</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182829</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512814</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842445</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900643</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947068</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671567</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080781</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308302</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897126</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>9.51507583820699</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784121</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490358</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790237</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676922</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441086</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714133</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104756</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937804</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522781</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390793</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198248</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055156</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651553</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937399</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779018</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712527</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074821</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359666</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822515</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426697</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457574</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411495</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810512</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916533</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840365</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>12.328626159853</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182837</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847382</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070427</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512819</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842451</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>332.005087490065</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947074</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671571</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607456</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080797</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784624</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308312</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897143</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888313</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207007</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784128</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490372</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>124.338107579024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889952</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676925</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441089</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714136</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720919</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104774</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937813</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685359</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>4.57268470752279</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.545352539127</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040854</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517152</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>638.098798973041</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513591</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233093</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588822</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312121</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>136.5895952221379</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>138.6157555714072</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>647.015504512226</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>680.0057497502846</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.96660727472374</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>186.699994849311</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233372</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369851</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353173</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391274</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>407.542538404086</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517159</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730419</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513599</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233101</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588828</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312126</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>137.9476282330542</v>
       </c>
       <c r="K15" t="n">
-        <v>245.091624262229</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748669</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122267</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>200.6633754067317</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269925</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>428.250271192764</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531411</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493113</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295331</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233375</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854533</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369854</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353358</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560242</v>
@@ -35977,13 +35977,13 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>588.4784392551049</v>
+        <v>642.8663885318341</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341712</v>
+        <v>537.6668875337001</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1590364.263461425</v>
+        <v>1595303.526310457</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>95.68020095976613</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>152.1157524910533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -797,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494245</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853701</v>
@@ -867,13 +867,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>160.1743669966221</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>99.34508049624266</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>13.62152856464951</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>99.72812891921986</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.54110646053104</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>58.40336142830051</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>63.15162983675109</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.70191565295202</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.31590541686241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>95.20854749054018</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>105.6571329437495</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H16" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.5954911124359796</v>
       </c>
       <c r="D19" t="n">
-        <v>88.83679808884803</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>41.51284162387385</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2295,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>7.67420571412707</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>131.8509395269516</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>223.4261454147153</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>122.3137095599312</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>203.9311975359922</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>50.03633552408541</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>135.8070937148558</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>195.4720543233661</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>26.27275520016748</v>
       </c>
       <c r="E40" t="n">
-        <v>33.35146980185854</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.70017889257694</v>
+        <v>133.9612206606979</v>
       </c>
     </row>
     <row r="44">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>155.8385935972304</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2545.473733912588</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2291.711948550679</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1960.649061207108</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1607.880405936994</v>
       </c>
       <c r="X2" t="n">
-        <v>1190.010945960184</v>
+        <v>1234.414647675914</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1234.414647675914</v>
       </c>
     </row>
     <row r="3">
@@ -4406,40 +4406,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4515,25 +4515,25 @@
         <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>388.7731165986622</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>388.7731165986622</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2079.343073798764</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C5" t="n">
-        <v>1710.380556858352</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D5" t="n">
-        <v>1352.114858251602</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E5" t="n">
-        <v>966.3266056533573</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2596.413607261434</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2596.413607261434</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2342.651821899526</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2011.588934555955</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862886</v>
+        <v>1268.680947310029</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1005.372199209268</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="C8" t="n">
-        <v>636.4096822688562</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="D8" t="n">
-        <v>278.1439836621057</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="E8" t="n">
-        <v>278.1439836621057</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>271.1984829129022</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4846,10 +4846,10 @@
         <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1391.97203927339</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>233.78524341101</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555226</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619865</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.623401105981</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>203.9414681711439</v>
+        <v>510.2366179610304</v>
       </c>
       <c r="C13" t="n">
-        <v>203.9414681711439</v>
+        <v>341.3004350331236</v>
       </c>
       <c r="D13" t="n">
-        <v>203.9414681711439</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E13" t="n">
-        <v>203.9414681711439</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>203.9414681711439</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383442</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>385.5899330013836</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="X13" t="n">
-        <v>385.5899330013836</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="Y13" t="n">
-        <v>385.5899330013836</v>
+        <v>510.2366179610304</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,7 +5278,7 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514081</v>
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110095</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555221</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.440640161986</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201014</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201014</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>213.9110074201014</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E16" t="n">
-        <v>213.9110074201014</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F16" t="n">
-        <v>213.9110074201014</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G16" t="n">
-        <v>213.9110074201014</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028583</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5469,19 +5469,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609662</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550793</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181187</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201014</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201014</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5512,10 +5512,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514081</v>
@@ -5533,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141287</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1171.725741678161</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2312.465467126434</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>503.0396462065432</v>
+        <v>560.7969603949465</v>
       </c>
       <c r="C19" t="n">
-        <v>503.0396462065432</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045606</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X19" t="n">
-        <v>503.0396462065432</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.0396462065432</v>
+        <v>560.7969603949465</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,13 +5831,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.2823606383756</v>
+        <v>454.2145238948139</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>454.2145238948139</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>454.2145238948139</v>
       </c>
       <c r="E22" t="n">
         <v>412.2823606383756</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5943,19 +5943,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247858</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>709.4512536188989</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>420.0340835819383</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X22" t="n">
-        <v>412.2823606383756</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y22" t="n">
-        <v>412.2823606383756</v>
+        <v>454.2145238948139</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>729.1316371486756</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C25" t="n">
-        <v>560.1954542207687</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
         <v>412.2823606383756</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1365.733503358961</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1076.60486457252</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>821.9203763666327</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150548</v>
+        <v>821.9203763666327</v>
       </c>
       <c r="X25" t="n">
-        <v>729.1316371486756</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="Y25" t="n">
-        <v>729.1316371486756</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="26">
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,13 +6262,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614725</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>665.6859735286132</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>665.6859735286132</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>665.6859735286132</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="32">
@@ -6703,16 +6703,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6770,7 +6770,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6888,19 +6888,19 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>1181.850058497514</v>
       </c>
       <c r="U34" t="n">
-        <v>1164.055751909234</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="V34" t="n">
-        <v>1113.513998854602</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="W34" t="n">
-        <v>1113.513998854602</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="X34" t="n">
-        <v>1113.513998854602</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y34" t="n">
         <v>892.7214197110717</v>
@@ -6925,49 +6925,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>699.5778825909698</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C37" t="n">
-        <v>699.5778825909698</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>549.461243178634</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617344999</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X37" t="n">
-        <v>920.3704617344999</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y37" t="n">
-        <v>699.5778825909698</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.9054447954965</v>
+        <v>271.6683216085047</v>
       </c>
       <c r="C40" t="n">
-        <v>130.9054447954965</v>
+        <v>271.6683216085047</v>
       </c>
       <c r="D40" t="n">
-        <v>130.9054447954965</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954965</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X40" t="n">
-        <v>130.9054447954965</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.9054447954965</v>
+        <v>271.6683216085047</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>711.072954880832</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1367719529251</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V43" t="n">
-        <v>964.1357418247858</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W43" t="n">
-        <v>964.1357418247858</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X43" t="n">
-        <v>964.1357418247858</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y43" t="n">
-        <v>892.7214197110717</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1341.503549752619</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1341.503549752619</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814813</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814762</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>360.502686290726</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>19.14409596997092</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776758</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>53.40692552767217</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>60.83643551962813</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315997</v>
       </c>
       <c r="H16" t="n">
-        <v>33.38685156731873</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>166.6513299861919</v>
       </c>
       <c r="D19" t="n">
-        <v>59.77867492936433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>104.9211210226953</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>218.0354496749101</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24417,19 +24417,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>89.69662153143761</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>2.283509974321817</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>44.93311153869659</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24654,7 +24654,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>17.61636352239702</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>202.1013077997426</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>10.62686893171335</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>91.05094401322486</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>122.3427178180449</v>
       </c>
       <c r="E40" t="n">
-        <v>113.0824928447106</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>147.8844744595178</v>
+        <v>84.62343269139689</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>96.29904972659759</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>926047.2283490477</v>
+        <v>926047.2283490478</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>926047.2283490478</v>
+        <v>926047.2283490477</v>
       </c>
     </row>
     <row r="14">
@@ -26316,22 +26316,22 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="F2" t="n">
         <v>449683.4186983651</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983653</v>
@@ -26340,10 +26340,10 @@
         <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="M2" t="n">
         <v>449683.4186983653</v>
@@ -26352,10 +26352,10 @@
         <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983655</v>
+        <v>449683.4186983653</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="L4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="M4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007485</v>
       </c>
     </row>
     <row r="5">
@@ -26475,40 +26475,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-348644.9883219119</v>
+        <v>-348644.9883219118</v>
       </c>
       <c r="C6" t="n">
-        <v>241322.8908926327</v>
+        <v>241322.8908926326</v>
       </c>
       <c r="D6" t="n">
         <v>241322.8908926326</v>
       </c>
       <c r="E6" t="n">
-        <v>-176355.2666429767</v>
+        <v>-175478.1345092271</v>
       </c>
       <c r="F6" t="n">
-        <v>348804.7698339195</v>
+        <v>349681.9019676687</v>
       </c>
       <c r="G6" t="n">
-        <v>348804.7698339194</v>
+        <v>349681.901967669</v>
       </c>
       <c r="H6" t="n">
-        <v>348804.7698339194</v>
+        <v>349681.901967669</v>
       </c>
       <c r="I6" t="n">
-        <v>348804.7698339195</v>
+        <v>349681.901967669</v>
       </c>
       <c r="J6" t="n">
-        <v>172381.5506413266</v>
+        <v>173258.682775076</v>
       </c>
       <c r="K6" t="n">
-        <v>348804.7698339195</v>
+        <v>349681.901967669</v>
       </c>
       <c r="L6" t="n">
-        <v>348804.7698339194</v>
+        <v>349681.9019676688</v>
       </c>
       <c r="M6" t="n">
-        <v>214003.7546000824</v>
+        <v>214880.8867338319</v>
       </c>
       <c r="N6" t="n">
-        <v>348804.7698339195</v>
+        <v>349681.9019676688</v>
       </c>
       <c r="O6" t="n">
-        <v>348804.7698339194</v>
+        <v>349681.901967669</v>
       </c>
       <c r="P6" t="n">
-        <v>348804.7698339197</v>
+        <v>349681.901967669</v>
       </c>
     </row>
   </sheetData>
@@ -26746,37 +26746,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>120.7681193978917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>234.1221861650002</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>51.97117195339681</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>393.2545171770619</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>74.68758388975168</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>14.65885272800596</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>323.5270086439613</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>350.6325401840439</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>231.821082683639</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352324</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330548</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330542</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>642.8663885318341</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>226.2375109014956</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875337001</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38110,13 +38110,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
